--- a/Resultado/informe_diario_20250304.xlsx
+++ b/Resultado/informe_diario_20250304.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Indicador</t>
   </si>
@@ -82,55 +82,52 @@
     <t>Bloqueos</t>
   </si>
   <si>
-    <t>0.10%</t>
-  </si>
-  <si>
-    <t>24.64%</t>
-  </si>
-  <si>
-    <t>23.43%</t>
-  </si>
-  <si>
-    <t>20.0%</t>
-  </si>
-  <si>
-    <t>10.0%</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>81.32%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>30.84%</t>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>24.65%</t>
+  </si>
+  <si>
+    <t>23.44%</t>
+  </si>
+  <si>
+    <t>19.58%</t>
+  </si>
+  <si>
+    <t>14.58%</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>81.43%</t>
+  </si>
+  <si>
+    <t>30.83%</t>
   </si>
   <si>
     <t>21.07%</t>
   </si>
   <si>
-    <t>58.5%</t>
-  </si>
-  <si>
-    <t>11.5%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>55.50%</t>
-  </si>
-  <si>
-    <t>44.50%</t>
-  </si>
-  <si>
-    <t>78.5%</t>
-  </si>
-  <si>
-    <t>21.5%</t>
+    <t>35.83%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
+    <t>55.48%</t>
+  </si>
+  <si>
+    <t>44.52%</t>
+  </si>
+  <si>
+    <t>55.42%</t>
+  </si>
+  <si>
+    <t>44.58%</t>
   </si>
 </sst>
 </file>
@@ -513,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8373</v>
+        <v>8379</v>
       </c>
       <c r="C2">
-        <v>8797</v>
+        <v>8791</v>
       </c>
       <c r="D2">
         <v>17170</v>
@@ -628,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -642,10 +639,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -656,10 +653,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -667,13 +664,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D13">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -681,13 +678,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -698,10 +695,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -712,10 +709,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -751,13 +748,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="C19">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="D19">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
